--- a/medicine/Psychotrope/Densité_primitive_de_moût/Densité_primitive_de_moût.xlsx
+++ b/medicine/Psychotrope/Densité_primitive_de_moût/Densité_primitive_de_moût.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Densit%C3%A9_primitive_de_mo%C3%BBt</t>
+          <t>Densité_primitive_de_moût</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La densité primitive de moût, ou densité initiale, est le pourcentage en masse d'extrait sec d'un moût avant fermentation alcoolique ou fermentation acétique. Elle est relative à la masse volumique ou à la densité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Densit%C3%A9_primitive_de_mo%C3%BBt</t>
+          <t>Densité_primitive_de_moût</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Échelles de mesure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'échelle de Balling a été développée par le chimiste tchèque Karl Balling. Elle donne la concentration d'une solution de saccharose exprimée en pourcentage de son poids à une température de 17,5 °C.
 L'échelle de Brix est initialement issue d'un recalcul de l'échelle de Balling par Adolf Brix avec une température de référence de 15,5 °C. Celle actuellement utilisée provient de nouveaux calculs avec une température de référence de 20,0 °C. Une bonne approximation est donnée par la formule 261,3 × (1 - 1 / g) où g est la densité de la solution à 20,0 °C.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Densit%C3%A9_primitive_de_mo%C3%BBt</t>
+          <t>Densité_primitive_de_moût</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Densit%C3%A9_primitive_de_mo%C3%BBt</t>
+          <t>Densité_primitive_de_moût</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +592,53 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allemagne
-La densité primitive de moût est utilisée en Allemagne dans le calcul de l'impôt sur la bière. Les catégories sont
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La densité primitive de moût est utilisée en Allemagne dans le calcul de l'impôt sur la bière. Les catégories sont
 0–7 % : Einfachbiere (exemple : Malzbier)
 7–11 % : Schankbiere (exemple : Berliner Weisse)
 11–14 % : Vollbiere (exemples : Pils, Weizen)
-16–28 % : Starkbiere (exemple : Doppelbock)
-Suisse
-En Suisse, la loi fédérale sur l'imposition de la bière (mise en application le 1er juillet 2007[1]) suit le même schéma :
+16–28 % : Starkbiere (exemple : Doppelbock)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Densité_primitive_de_moût</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Densit%C3%A9_primitive_de_mo%C3%BBt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Législation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, la loi fédérale sur l'imposition de la bière (mise en application le 1er juillet 2007) suit le même schéma :
 « 
 Art. 10 — Base de calcul
 L’impôt est calculé par hectolitre et sur la base de la teneur en moût d’origine, exprimée en degrés Plato.
